--- a/Plan/Data_추출파일/006.세이브테이블.xlsx
+++ b/Plan/Data_추출파일/006.세이브테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365cntu-my.sharepoint.com/personal/201938026_s_cntu_ac_kr/Documents/Funigloo/1.티니핑 프로젝트/Tiniffing_plan/Plan/Data_추출파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{077BD50A-C9E8-481F-A63D-5855282FE6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6B2A21-AEDA-41D6-ACC1-265E26D06FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28AB3781-1B46-4977-BC23-CD0E733D9DF8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8EA6DE0-E3D6-4C77-A118-A246A3E3A873}"/>
   </bookViews>
   <sheets>
     <sheet name="006.세이브테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>star_count</t>
+  </si>
+  <si>
+    <t>heart_count</t>
   </si>
   <si>
     <t>data</t>
@@ -61,7 +64,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -415,16 +418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4517FD49-9616-4D94-A6FB-F7F9BD9FF7EA}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4B991F-31AF-45A6-AFFA-4396F92C4B6F}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,13 +438,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Data_추출파일/006.세이브테이블.xlsx
+++ b/Plan/Data_추출파일/006.세이브테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA6B2A21-AEDA-41D6-ACC1-265E26D06FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD18916-D9BE-43DB-9C27-7406C51AE7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8EA6DE0-E3D6-4C77-A118-A246A3E3A873}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2E69A1E-EF0C-4D2B-B0C1-14AE41C37030}"/>
   </bookViews>
   <sheets>
     <sheet name="006.세이브테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>heart_count</t>
+  </si>
+  <si>
+    <t>cumulative_cycle_time</t>
   </si>
   <si>
     <t>data</t>
@@ -418,16 +421,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4B991F-31AF-45A6-AFFA-4396F92C4B6F}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA923737-603F-4561-98F0-90163BB3E536}">
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +444,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -448,6 +454,9 @@
       </c>
       <c r="G1" t="s">
         <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
